--- a/Assets/06.Table/FoxCup.xlsx
+++ b/Assets/06.Table/FoxCup.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05CBF768-31B4-4876-9885-2F1547595C0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5C259DC-7C58-4E4A-B4A7-69D5E1FA4240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="FoxCup" sheetId="1" r:id="rId1"/>
@@ -454,7 +454,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -462,11 +462,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -916,6 +916,182 @@
         <v>0</v>
       </c>
     </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>85000</v>
+      </c>
+      <c r="C11">
+        <v>39</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>42</v>
+      </c>
+      <c r="F11">
+        <v>14</v>
+      </c>
+      <c r="G11">
+        <v>43</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>90000</v>
+      </c>
+      <c r="C12">
+        <v>39</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>42</v>
+      </c>
+      <c r="F12">
+        <v>18</v>
+      </c>
+      <c r="G12">
+        <v>43</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>95000</v>
+      </c>
+      <c r="C13">
+        <v>39</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>42</v>
+      </c>
+      <c r="F13">
+        <v>22</v>
+      </c>
+      <c r="G13">
+        <v>43</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>100000</v>
+      </c>
+      <c r="C14">
+        <v>39</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>42</v>
+      </c>
+      <c r="F14">
+        <v>26</v>
+      </c>
+      <c r="G14">
+        <v>43</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
